--- a/PageBuilder_Template.xlsx
+++ b/PageBuilder_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratik.chabria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE67F0D-9E33-4114-86ED-E7A2E769D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D20109-6B21-43B6-B01D-DC067563BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4C5482A-1A49-4C6E-8DC1-7D7148DC7956}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E4C5482A-1A49-4C6E-8DC1-7D7148DC7956}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="2" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>14</v>
@@ -1310,13 +1310,13 @@
     <sortCondition ref="D1:D53"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{B848B8DB-C085-4739-B6A7-03309B71297C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E53" xr:uid="{B848B8DB-C085-4739-B6A7-03309B71297C}">
       <formula1>"Platform Page,Custom Content,Custom Iframe,Custom Content With Inventory,External Link,Local Link,Custom Model Research Page, Special Listing Page"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{60CB4AC7-2029-48F4-B47B-7E006493B1B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{60CB4AC7-2029-48F4-B47B-7E006493B1B4}">
       <formula1>"Enabled,Sitemapped"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{665DC2E4-1B1A-4EC2-ACEB-D4EA48061DAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D53" xr:uid="{665DC2E4-1B1A-4EC2-ACEB-D4EA48061DAE}">
       <formula1>"About Us, Model Research, Body Shop, EV, Finance, New, Ownership Experience, Pre-owned, Research, Service &amp; Parts, Service Department, Specials"</formula1>
     </dataValidation>
   </dataValidations>
